--- a/Meeting_Tracker.xlsx
+++ b/Meeting_Tracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ADSC 3910 - Applied Data Science Integrated Practice 2</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Sayantika, Alex, Manisha</t>
+  </si>
+  <si>
+    <t>Task Distribution</t>
+  </si>
+  <si>
+    <t>9/13/2024 9:30pm - 10:00pm</t>
+  </si>
+  <si>
+    <t>Sayantika, Manisha</t>
   </si>
 </sst>
 </file>
@@ -157,6 +166,25 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,25 +201,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +486,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,134 +496,171 @@
     <col min="6" max="6" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E10:F10"/>
@@ -624,37 +670,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
